--- a/data/trans_dic/P1424_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1424_2016_2023-Edad-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.0233029780057212</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05556059101877262</v>
+        <v>0.05556059101877261</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01378061106105273</v>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008215351894008275</v>
+        <v>0.009427997142939019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009809312753406248</v>
+        <v>0.01063970974207859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02821972262413983</v>
+        <v>0.02889341992441547</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007195893579105531</v>
+        <v>0.007033224014181416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02353834026457461</v>
+        <v>0.02378589700359054</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01704306198357524</v>
+        <v>0.0150921446967746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06303030423531145</v>
+        <v>0.06131646004544309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04494475172807297</v>
+        <v>0.04446832286384537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09691415108285664</v>
+        <v>0.1013860982498599</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02416662112680812</v>
+        <v>0.02599476698512981</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0628794214972795</v>
+        <v>0.06312414513603029</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004912075200468641</v>
+        <v>0.004988884316399377</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01141765407796181</v>
+        <v>0.01064870937482711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0108896565929741</v>
+        <v>0.01086872917019912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03935096770691073</v>
+        <v>0.03922000726539513</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01063901730788405</v>
+        <v>0.01017238628564101</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02994522677179773</v>
+        <v>0.02979248305102243</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02211595070445074</v>
+        <v>0.02322435710235458</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04596741052039138</v>
+        <v>0.04369478731404126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03506084863725321</v>
+        <v>0.03550574572497932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08489885444693042</v>
+        <v>0.08610857226903497</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02535422709311494</v>
+        <v>0.02543764352869246</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05838717170022643</v>
+        <v>0.05893979983995964</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.05477841690285329</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0607756872337127</v>
+        <v>0.06077568723371272</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03554010671856307</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008569129577167513</v>
+        <v>0.008826226077267327</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02860639495979987</v>
+        <v>0.02731435712748777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0401051490609231</v>
+        <v>0.03933637894791208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04538703277708712</v>
+        <v>0.04626002182150844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02726794418760764</v>
+        <v>0.02654458461158845</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0417184856417953</v>
+        <v>0.04079712994742477</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02822479073763075</v>
+        <v>0.02950385377108974</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06728926160544853</v>
+        <v>0.06278632565917019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07319097831848466</v>
+        <v>0.07357407860565993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07953345898023965</v>
+        <v>0.07907591313818761</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04652180540395034</v>
+        <v>0.04625948542529214</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06506819119666107</v>
+        <v>0.06491693327035304</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01580770832115055</v>
+        <v>0.0167111199920826</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03722743268306867</v>
+        <v>0.03777592238945811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06096570860535785</v>
+        <v>0.06042655773725527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09095401916167359</v>
+        <v>0.09199317127567318</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04171755158454209</v>
+        <v>0.04127003423888255</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06951021725100298</v>
+        <v>0.0704476596440351</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04300061278589402</v>
+        <v>0.04302126250384803</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.073226548245935</v>
+        <v>0.07472285928739653</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1078630440857331</v>
+        <v>0.1035556624453177</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1267313812256644</v>
+        <v>0.1281165074433473</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06837752474118057</v>
+        <v>0.06970650927998349</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09424758417168055</v>
+        <v>0.09566014302991134</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01911388272625008</v>
+        <v>0.02000878676855703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04787992746521204</v>
+        <v>0.04838171670708538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07876619128676381</v>
+        <v>0.07786039776129974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1007817889192787</v>
+        <v>0.1013217333441232</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05518530725443555</v>
+        <v>0.05452400234374648</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07937546559051373</v>
+        <v>0.07983292794629034</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05860663759894302</v>
+        <v>0.05676299020169483</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0851310913254098</v>
+        <v>0.0891537221500544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1340923173576598</v>
+        <v>0.1360889140171216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1421047701709549</v>
+        <v>0.1432494260256561</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09093325465159571</v>
+        <v>0.0901037109976527</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1085673530308568</v>
+        <v>0.108603128477575</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.01433619924363689</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.02598576922885329</v>
+        <v>0.02598576922885328</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1045739485635608</v>
@@ -1034,7 +1034,7 @@
         <v>0.06220696989478727</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.07298188430662013</v>
+        <v>0.07298188430662014</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00539417912734219</v>
+        <v>0.005538421926229492</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01531330937355721</v>
+        <v>0.0163725396076026</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0762896331192264</v>
+        <v>0.07552738790454863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09564320176481711</v>
+        <v>0.0969032717459986</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04670318570011902</v>
+        <v>0.04551157280552669</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06049746591845684</v>
+        <v>0.0590305390827796</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03180887143846654</v>
+        <v>0.03183945682071185</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04167820422406013</v>
+        <v>0.0425163381789991</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1452814167592248</v>
+        <v>0.1416597280252291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1415247150122189</v>
+        <v>0.1394735859485531</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08400877293280222</v>
+        <v>0.0827221800747631</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08747125058567269</v>
+        <v>0.0868371900367579</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.05603531457323844</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.08398419132597808</v>
+        <v>0.08398419132597806</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008318535785031934</v>
+        <v>0.008343544261602736</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0324712639564534</v>
+        <v>0.03230156758177723</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05381283763712354</v>
+        <v>0.05244162529526938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0864727656737595</v>
+        <v>0.08399198856882927</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03905099862495235</v>
+        <v>0.0375127396998472</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06961663301701165</v>
+        <v>0.06886087312767139</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04472551344270875</v>
+        <v>0.04386078213451148</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07354423925010102</v>
+        <v>0.073573358569635</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1124533291159533</v>
+        <v>0.1114394861862476</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1305639138364159</v>
+        <v>0.1289009831184381</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07844788822206054</v>
+        <v>0.07685857454496581</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1001751643213645</v>
+        <v>0.09933640887748776</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>0.06553873947657765</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.09172031521585312</v>
+        <v>0.09172031521585314</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.04279951865960667</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01528863965427827</v>
+        <v>0.01459986068586912</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03616105996014975</v>
+        <v>0.03609592444890117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05765423157027663</v>
+        <v>0.05781050143986246</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08304617485220098</v>
+        <v>0.08409566764212952</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03810540303391841</v>
+        <v>0.0378375865786657</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06272385470329021</v>
+        <v>0.06288982542300814</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02470115862377712</v>
+        <v>0.02458572784659229</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05031459263380577</v>
+        <v>0.04951473505714396</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07513470468304569</v>
+        <v>0.07463086378288121</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1003626766211344</v>
+        <v>0.09981279560165233</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04796679554060271</v>
+        <v>0.04798867483148148</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07399701912572211</v>
+        <v>0.07345904241041243</v>
       </c>
     </row>
     <row r="28">
@@ -1443,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3350</v>
+        <v>3845</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3882</v>
+        <v>4211</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10230</v>
+        <v>10474</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5866</v>
+        <v>5734</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18132</v>
+        <v>18322</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7149</v>
+        <v>6331</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25703</v>
+        <v>25004</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17787</v>
+        <v>17599</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35133</v>
+        <v>36754</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19701</v>
+        <v>21191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48436</v>
+        <v>48625</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2901</v>
+        <v>2946</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5445</v>
+        <v>5078</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6137</v>
+        <v>6125</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19718</v>
+        <v>19652</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12278</v>
+        <v>11739</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29286</v>
+        <v>29136</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13059</v>
+        <v>13714</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21921</v>
+        <v>20838</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19758</v>
+        <v>20009</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42541</v>
+        <v>43148</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29260</v>
+        <v>29356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57101</v>
+        <v>57642</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5734</v>
+        <v>5906</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17726</v>
+        <v>16926</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26525</v>
+        <v>26017</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>28173</v>
+        <v>28715</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36280</v>
+        <v>35317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51747</v>
+        <v>50604</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18885</v>
+        <v>19741</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41696</v>
+        <v>38906</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48407</v>
+        <v>48661</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49368</v>
+        <v>49084</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61896</v>
+        <v>61547</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>80709</v>
+        <v>80521</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10213</v>
+        <v>10796</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26040</v>
+        <v>26424</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39571</v>
+        <v>39221</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>66987</v>
+        <v>67753</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54029</v>
+        <v>53450</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>99816</v>
+        <v>101162</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27780</v>
+        <v>27794</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51221</v>
+        <v>52268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70011</v>
+        <v>67216</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>93337</v>
+        <v>94357</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>88557</v>
+        <v>90279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>135338</v>
+        <v>137367</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9135</v>
+        <v>9563</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29084</v>
+        <v>29389</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39135</v>
+        <v>38685</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61147</v>
+        <v>61474</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53793</v>
+        <v>53148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>96374</v>
+        <v>96930</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28009</v>
+        <v>27128</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>51712</v>
+        <v>54155</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66624</v>
+        <v>67616</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>86218</v>
+        <v>86913</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>88639</v>
+        <v>87830</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>131818</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1803</v>
+        <v>1852</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6220</v>
+        <v>6651</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>28819</v>
+        <v>28531</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>42003</v>
+        <v>42557</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>33257</v>
+        <v>32408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>51143</v>
+        <v>49903</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10635</v>
+        <v>10645</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16930</v>
+        <v>17271</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>54882</v>
+        <v>53514</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62153</v>
+        <v>61252</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>59822</v>
+        <v>58906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>73946</v>
+        <v>73410</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2138</v>
+        <v>2144</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>10073</v>
+        <v>10020</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21534</v>
+        <v>20986</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>40117</v>
+        <v>38966</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25663</v>
+        <v>24652</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>53892</v>
+        <v>53307</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11494</v>
+        <v>11272</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>22813</v>
+        <v>22822</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>45000</v>
+        <v>44595</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>60571</v>
+        <v>59800</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>51553</v>
+        <v>50509</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>77548</v>
+        <v>76898</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>51895</v>
+        <v>49557</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>127564</v>
+        <v>127335</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>204358</v>
+        <v>204912</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>309814</v>
+        <v>313729</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>264409</v>
+        <v>262551</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>455268</v>
+        <v>456473</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>83844</v>
+        <v>83453</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>177494</v>
+        <v>174672</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>266318</v>
+        <v>264532</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>374415</v>
+        <v>372364</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>332836</v>
+        <v>332988</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>537092</v>
+        <v>533187</v>
       </c>
     </row>
     <row r="36">
